--- a/order.xlsx
+++ b/order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hqu/Documents/code/FreezBoneInventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCCF450-AE30-6D46-85B6-508AAA8C3120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7265380B-5BC6-5B48-B387-D871A131B79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="10800" windowWidth="28800" windowHeight="18000" xr2:uid="{B3CF2995-1964-EA4C-A590-465F635D229F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="21600" xr2:uid="{B3CF2995-1964-EA4C-A590-465F635D229F}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
@@ -1515,7 +1515,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1613,6 +1613,12 @@
       <c r="G4" t="s">
         <v>36</v>
       </c>
+      <c r="H4" s="28">
+        <v>45297</v>
+      </c>
+      <c r="I4">
+        <v>200</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
@@ -1632,6 +1638,12 @@
       <c r="G5" t="s">
         <v>37</v>
       </c>
+      <c r="H5" s="28">
+        <v>45297</v>
+      </c>
+      <c r="I5">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32"/>
@@ -1651,6 +1663,12 @@
       <c r="G6" t="s">
         <v>38</v>
       </c>
+      <c r="H6" s="28">
+        <v>45297</v>
+      </c>
+      <c r="I6">
+        <v>200</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
@@ -1670,6 +1688,12 @@
       <c r="G7" t="s">
         <v>39</v>
       </c>
+      <c r="H7" s="28">
+        <v>45297</v>
+      </c>
+      <c r="I7">
+        <v>200</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32"/>
@@ -1689,6 +1713,12 @@
       <c r="G8" t="s">
         <v>40</v>
       </c>
+      <c r="H8" s="28">
+        <v>45297</v>
+      </c>
+      <c r="I8">
+        <v>200</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32"/>
@@ -1746,6 +1776,12 @@
       <c r="G11" t="s">
         <v>43</v>
       </c>
+      <c r="H11" s="28">
+        <v>45297</v>
+      </c>
+      <c r="I11">
+        <v>200</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32"/>
@@ -1842,7 +1878,7 @@
         <v>48</v>
       </c>
       <c r="H16" s="28">
-        <v>45306</v>
+        <v>45311</v>
       </c>
       <c r="I16">
         <v>500</v>
@@ -1867,7 +1903,7 @@
         <v>49</v>
       </c>
       <c r="H17" s="28">
-        <v>45323</v>
+        <v>45311</v>
       </c>
       <c r="I17">
         <v>500</v>
@@ -1967,6 +2003,12 @@
       <c r="G22" t="s">
         <v>54</v>
       </c>
+      <c r="H22" s="28">
+        <v>45297</v>
+      </c>
+      <c r="I22">
+        <v>200</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="33"/>
@@ -1985,6 +2027,12 @@
       </c>
       <c r="G23" t="s">
         <v>55</v>
+      </c>
+      <c r="H23" s="28">
+        <v>45297</v>
+      </c>
+      <c r="I23">
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
